--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/17.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/17.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2674316784683509</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.603067530044132</v>
+        <v>-1.60201293723286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1487630223229702</v>
+        <v>0.1499545547977948</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2444505644647611</v>
+        <v>-0.2447118516388971</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2743261049500263</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.536990207331929</v>
+        <v>-1.535669605289158</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09840070651783338</v>
+        <v>0.09939706062161671</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2478299835181937</v>
+        <v>-0.2480361800230841</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2770447009050316</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.494371278594031</v>
+        <v>-1.492657958780495</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09442316019830653</v>
+        <v>0.09533766530778223</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2576707510645656</v>
+        <v>-0.2580060171374027</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2695598090128614</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.563719413040296</v>
+        <v>-1.561911652079483</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1218126669280598</v>
+        <v>0.1229727190204584</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2353842143260692</v>
+        <v>-0.2354660633203768</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2547475569859666</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.596927281451938</v>
+        <v>-1.595285579508421</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1078416732073949</v>
+        <v>0.1088647856362403</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2610076716017231</v>
+        <v>-0.261205998011007</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2365373243660635</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.483240602377753</v>
+        <v>-1.481656352132164</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1218236850619089</v>
+        <v>0.1229097582556064</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2529046211652671</v>
+        <v>-0.2531076696319149</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2182963255528477</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.266866489849033</v>
+        <v>-1.265392420941934</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1597512498087703</v>
+        <v>0.1606484407079117</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2587048816272602</v>
+        <v>-0.2591471810003457</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2023725803571791</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.007111623327705</v>
+        <v>-1.006308086566281</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1823699045818612</v>
+        <v>0.1832922797869434</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2557315595071232</v>
+        <v>-0.2563721852894926</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1908381218983335</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.593198111075748</v>
+        <v>-0.5925968357714112</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1718224024500253</v>
+        <v>0.1726361703357377</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1648382513284936</v>
+        <v>-0.1652931428545495</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1814123237574303</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.218260460305439</v>
+        <v>-0.2181660191581609</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1415996613019307</v>
+        <v>0.1423268581359717</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1285996090987879</v>
+        <v>-0.1291379236382728</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1662421014618217</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2437928527523779</v>
+        <v>0.24366220916531</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1050430672097223</v>
+        <v>0.1061464546137541</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03864126827821101</v>
+        <v>-0.03891357358619603</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1342103154631988</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7702487321773337</v>
+        <v>0.7700346655768369</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005708066203236719</v>
+        <v>-0.004463017078287875</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05530721101486314</v>
+        <v>0.05508212628051715</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.0789396870659939</v>
       </c>
       <c r="E14" t="n">
-        <v>1.316186246266628</v>
+        <v>1.315806907658395</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2291416544909907</v>
+        <v>-0.2280681734502636</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1594757964625427</v>
+        <v>0.1594081136403267</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.0001309559482732917</v>
       </c>
       <c r="E15" t="n">
-        <v>1.877915894199933</v>
+        <v>1.877442114444421</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4409416674532112</v>
+        <v>-0.4397060624429902</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2930675213446959</v>
+        <v>0.2930454850769977</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.09677975168931503</v>
       </c>
       <c r="E16" t="n">
-        <v>2.350987341106854</v>
+        <v>2.350127926666624</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6664419428472329</v>
+        <v>-0.6649529207584824</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4371563797468035</v>
+        <v>0.4373106336206909</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2016573961917727</v>
       </c>
       <c r="E17" t="n">
-        <v>2.807235671645314</v>
+        <v>2.805996918596851</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8812152779295905</v>
+        <v>-0.8794846439057203</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5565772104798867</v>
+        <v>0.5568778481320551</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.308134720614596</v>
       </c>
       <c r="E18" t="n">
-        <v>3.230338307527424</v>
+        <v>3.228605312474872</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.209239288789532</v>
+        <v>-1.20768730593593</v>
       </c>
       <c r="G18" t="n">
-        <v>0.67821268611664</v>
+        <v>0.6784566590804415</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4138279074164573</v>
       </c>
       <c r="E19" t="n">
-        <v>3.604548761463692</v>
+        <v>3.602704011053528</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.509168632353379</v>
+        <v>-1.507787430574437</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8390900324665407</v>
+        <v>0.8394095583481647</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5171886829650132</v>
       </c>
       <c r="E20" t="n">
-        <v>3.731912092682859</v>
+        <v>3.729052099939456</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.844703075450607</v>
+        <v>-1.84363038141944</v>
       </c>
       <c r="G20" t="n">
-        <v>1.015052778074987</v>
+        <v>1.01563673916899</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6164281879660606</v>
       </c>
       <c r="E21" t="n">
-        <v>3.982026879095781</v>
+        <v>3.978826898222176</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.081622859569665</v>
+        <v>-2.080867330391441</v>
       </c>
       <c r="G21" t="n">
-        <v>1.18256461502117</v>
+        <v>1.183368938792155</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7099120573102181</v>
       </c>
       <c r="E22" t="n">
-        <v>4.18712157060126</v>
+        <v>4.184223801398946</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.376106096973811</v>
+        <v>-2.37557329150125</v>
       </c>
       <c r="G22" t="n">
-        <v>1.32290415987634</v>
+        <v>1.323810794890209</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7965941963761132</v>
       </c>
       <c r="E23" t="n">
-        <v>4.411523180648614</v>
+        <v>4.408823737855584</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.508672348398437</v>
+        <v>-2.507893995942954</v>
       </c>
       <c r="G23" t="n">
-        <v>1.493397189038266</v>
+        <v>1.49468473667949</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8767231962191711</v>
       </c>
       <c r="E24" t="n">
-        <v>4.539182427462585</v>
+        <v>4.536342896967759</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.623561578081295</v>
+        <v>-2.622476291897158</v>
       </c>
       <c r="G24" t="n">
-        <v>1.597243100566079</v>
+        <v>1.598680180023827</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9510522986276635</v>
       </c>
       <c r="E25" t="n">
-        <v>4.679232352799435</v>
+        <v>4.676554946274103</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.818281122548721</v>
+        <v>-2.817568878896333</v>
       </c>
       <c r="G25" t="n">
-        <v>1.660417932018603</v>
+        <v>1.661861307552836</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.019339957643247</v>
       </c>
       <c r="E26" t="n">
-        <v>4.791407973517171</v>
+        <v>4.789130367848649</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.908093866600578</v>
+        <v>-2.907471342038103</v>
       </c>
       <c r="G26" t="n">
-        <v>1.703190327620828</v>
+        <v>1.704679349709579</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.079782409537841</v>
       </c>
       <c r="E27" t="n">
-        <v>4.899511606768103</v>
+        <v>4.897891941092284</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.979949413507076</v>
+        <v>-2.9794709116942</v>
       </c>
       <c r="G27" t="n">
-        <v>1.753108770033758</v>
+        <v>1.754788248436186</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.129858989572303</v>
       </c>
       <c r="E28" t="n">
-        <v>4.898318500274157</v>
+        <v>4.897145856028787</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.068136195806629</v>
+        <v>-3.068133834777947</v>
       </c>
       <c r="G28" t="n">
-        <v>1.793528007049639</v>
+        <v>1.795608860327998</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.16708546293622</v>
       </c>
       <c r="E29" t="n">
-        <v>4.906009157700832</v>
+        <v>4.905444084836285</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.081229673867168</v>
+        <v>-3.081621604628372</v>
       </c>
       <c r="G29" t="n">
-        <v>1.725243909529372</v>
+        <v>1.727195693239785</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.189093863314588</v>
       </c>
       <c r="E30" t="n">
-        <v>4.847597308109363</v>
+        <v>4.847195933233431</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.070697911926545</v>
+        <v>-3.071227569360863</v>
       </c>
       <c r="G30" t="n">
-        <v>1.688953324668664</v>
+        <v>1.690820111346526</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.193590415768843</v>
       </c>
       <c r="E31" t="n">
-        <v>4.72165374213761</v>
+        <v>4.72143652749887</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.058261586849149</v>
+        <v>-3.05931539265086</v>
       </c>
       <c r="G31" t="n">
-        <v>1.63014797029687</v>
+        <v>1.632039941280673</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.179025082967474</v>
       </c>
       <c r="E32" t="n">
-        <v>4.640070757061474</v>
+        <v>4.640434355478495</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.019159803837797</v>
+        <v>-3.020439481383415</v>
       </c>
       <c r="G32" t="n">
-        <v>1.592340031003227</v>
+        <v>1.594169041222179</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.145902252291917</v>
       </c>
       <c r="E33" t="n">
-        <v>4.560097993546429</v>
+        <v>4.56092277956599</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.949891944366718</v>
+        <v>-2.951203889304322</v>
       </c>
       <c r="G33" t="n">
-        <v>1.562197564830319</v>
+        <v>1.564239067630646</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.096658457813987</v>
       </c>
       <c r="E34" t="n">
-        <v>4.358020696696483</v>
+        <v>4.359029642953236</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.877180918067793</v>
+        <v>-2.878666792118301</v>
       </c>
       <c r="G34" t="n">
-        <v>1.511422856015402</v>
+        <v>1.513476950968699</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.035087913472288</v>
       </c>
       <c r="E35" t="n">
-        <v>4.132915500101907</v>
+        <v>4.13386305961293</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.844847417278034</v>
+        <v>-2.846585921397511</v>
       </c>
       <c r="G35" t="n">
-        <v>1.39078216046331</v>
+        <v>1.392568672165987</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9654592179380174</v>
       </c>
       <c r="E36" t="n">
-        <v>3.980825902506228</v>
+        <v>3.982116598185695</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.819213728878092</v>
+        <v>-2.82112301407223</v>
       </c>
       <c r="G36" t="n">
-        <v>1.363737363921122</v>
+        <v>1.365717479975718</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8910689023048779</v>
       </c>
       <c r="E37" t="n">
-        <v>3.784274986791169</v>
+        <v>3.785694752038582</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.755462019417611</v>
+        <v>-2.75730047375129</v>
       </c>
       <c r="G37" t="n">
-        <v>1.277034094643395</v>
+        <v>1.278845790652012</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8145627367571205</v>
       </c>
       <c r="E38" t="n">
-        <v>3.712812944664996</v>
+        <v>3.714706489667921</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.72356216089577</v>
+        <v>-2.725593432571809</v>
       </c>
       <c r="G38" t="n">
-        <v>1.233197662115171</v>
+        <v>1.235173056112403</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7375524667621082</v>
       </c>
       <c r="E39" t="n">
-        <v>3.501955769156435</v>
+        <v>3.504025604300945</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.740329399585426</v>
+        <v>-2.742714825563757</v>
       </c>
       <c r="G39" t="n">
-        <v>1.157956400078755</v>
+        <v>1.160013643070295</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6606743033070525</v>
       </c>
       <c r="E40" t="n">
-        <v>3.255901952076468</v>
+        <v>3.258159095496414</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.704943088709904</v>
+        <v>-2.707655123655906</v>
       </c>
       <c r="G40" t="n">
-        <v>1.093813546866631</v>
+        <v>1.095877085934656</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5844640973934481</v>
       </c>
       <c r="E41" t="n">
-        <v>3.083452417146765</v>
+        <v>3.085777243388927</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.644337843472904</v>
+        <v>-2.647183670044215</v>
       </c>
       <c r="G41" t="n">
-        <v>1.061657910237579</v>
+        <v>1.063757651745394</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5096390886219621</v>
       </c>
       <c r="E42" t="n">
-        <v>2.967810806323925</v>
+        <v>2.970644040742267</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.613265131999307</v>
+        <v>-2.616062163977858</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9777611170531312</v>
+        <v>0.9797900277004878</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4369526907521097</v>
       </c>
       <c r="E43" t="n">
-        <v>2.83346670030179</v>
+        <v>2.836482520938202</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.595913932215649</v>
+        <v>-2.598881745268861</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9257146007882027</v>
+        <v>0.9277340673208314</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3662328980308785</v>
       </c>
       <c r="E44" t="n">
-        <v>2.70354558801051</v>
+        <v>2.70710287122465</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.524615588078091</v>
+        <v>-2.527435443333902</v>
       </c>
       <c r="G44" t="n">
-        <v>0.861412771644827</v>
+        <v>0.8633488151640268</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2968912852975534</v>
       </c>
       <c r="E45" t="n">
-        <v>2.506977358085116</v>
+        <v>2.510413441826916</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.459404762892164</v>
+        <v>-2.462197859822913</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8311475319804573</v>
+        <v>0.8332157931058465</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2285551382555006</v>
       </c>
       <c r="E46" t="n">
-        <v>2.38035224183384</v>
+        <v>2.384026002462956</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.419291672595377</v>
+        <v>-2.422047780076775</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7679034436865957</v>
+        <v>0.7699166141427393</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1608678490336134</v>
       </c>
       <c r="E47" t="n">
-        <v>2.217268120675876</v>
+        <v>2.221030026375784</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.285234825062879</v>
+        <v>-2.28773987649443</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7115881875646997</v>
+        <v>0.7135415452942339</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.09360844841524625</v>
       </c>
       <c r="E48" t="n">
-        <v>2.128411593240209</v>
+        <v>2.132354511139067</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.243648452868555</v>
+        <v>-2.246144847194937</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6627794286322867</v>
+        <v>0.6647516745912765</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.02699792136935004</v>
       </c>
       <c r="E49" t="n">
-        <v>1.974803067192475</v>
+        <v>1.978853018391582</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.191670406435402</v>
+        <v>-2.194188050019923</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5882842516593677</v>
+        <v>0.5901667785284433</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.03822456493167657</v>
       </c>
       <c r="E50" t="n">
-        <v>1.881318923540185</v>
+        <v>1.885619143779578</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.144228683109839</v>
+        <v>-2.146751048751724</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5317675210899453</v>
+        <v>0.5335918092515327</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1011245896795166</v>
       </c>
       <c r="E51" t="n">
-        <v>1.75743102654085</v>
+        <v>1.761800503621581</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.094009603044741</v>
+        <v>-2.096597290480159</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4868528854636301</v>
+        <v>0.4885150496557236</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1609747989198589</v>
       </c>
       <c r="E52" t="n">
-        <v>1.645817330649418</v>
+        <v>1.650424484617465</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.977304742305462</v>
+        <v>-1.979465870559008</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4511887602131991</v>
+        <v>0.4529249033039938</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2194214497209116</v>
       </c>
       <c r="E53" t="n">
-        <v>1.60161257764681</v>
+        <v>1.606359819316653</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.917710017344336</v>
+        <v>-1.919939615429658</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3805153016667983</v>
+        <v>0.3821270972470102</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.277923122399203</v>
       </c>
       <c r="E54" t="n">
-        <v>1.557041078188938</v>
+        <v>1.562158214352287</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.906900441028804</v>
+        <v>-1.9092685527968</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3462221470710202</v>
+        <v>0.3477457975804392</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3338011896396564</v>
       </c>
       <c r="E55" t="n">
-        <v>1.501262562587406</v>
+        <v>1.506724408938319</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.842389267342295</v>
+        <v>-1.844492156888353</v>
       </c>
       <c r="G55" t="n">
-        <v>0.319100223591888</v>
+        <v>0.3206191520439432</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.385509616168106</v>
       </c>
       <c r="E56" t="n">
-        <v>1.44285386103418</v>
+        <v>1.448177193702419</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.781267743833507</v>
+        <v>-1.783116429291475</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2129090235733371</v>
+        <v>0.2140989820290404</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4336482314718868</v>
       </c>
       <c r="E57" t="n">
-        <v>1.451424395149662</v>
+        <v>1.457443444269516</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.778894122998586</v>
+        <v>-1.780880535129667</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2132741960094789</v>
+        <v>0.2146860911612856</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4793414802847087</v>
       </c>
       <c r="E58" t="n">
-        <v>1.435443379011096</v>
+        <v>1.441870099083367</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.764229773854988</v>
+        <v>-1.766065867159985</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2086025072574584</v>
+        <v>0.2101088435565432</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5234359239691277</v>
       </c>
       <c r="E59" t="n">
-        <v>1.422950389245333</v>
+        <v>1.429561269554795</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.728475142505082</v>
+        <v>-1.730200267462028</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1352516421857251</v>
+        <v>0.1366415010698336</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.566505128545103</v>
       </c>
       <c r="E60" t="n">
-        <v>1.454167910478089</v>
+        <v>1.461131371070723</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.760382084112968</v>
+        <v>-1.762237065647421</v>
       </c>
       <c r="G60" t="n">
-        <v>0.114893278870822</v>
+        <v>0.1163429504815399</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6090314856407593</v>
       </c>
       <c r="E61" t="n">
-        <v>1.450875062476328</v>
+        <v>1.458189529333012</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.778701305656226</v>
+        <v>-1.780546056066391</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1267661051027931</v>
+        <v>0.1283448462814576</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6513959380599326</v>
       </c>
       <c r="E62" t="n">
-        <v>1.460295566917313</v>
+        <v>1.468123164007541</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.822128493212912</v>
+        <v>-1.824177079099285</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04002033730879086</v>
+        <v>0.04144797265181058</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6937260707912425</v>
       </c>
       <c r="E63" t="n">
-        <v>1.445920050282473</v>
+        <v>1.454139578133906</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.783835756029909</v>
+        <v>-1.78583318629484</v>
       </c>
       <c r="G63" t="n">
-        <v>0.005949119409116175</v>
+        <v>0.007257129298917047</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7357018158690481</v>
       </c>
       <c r="E64" t="n">
-        <v>1.446697615728396</v>
+        <v>1.455203615059905</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.811285862495833</v>
+        <v>-1.813287227808566</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02425788154776532</v>
+        <v>-0.0230553309390916</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7761534299708887</v>
       </c>
       <c r="E65" t="n">
-        <v>1.455416107641281</v>
+        <v>1.464510790124156</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.836747195801993</v>
+        <v>-1.838757218219893</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02757433983634587</v>
+        <v>-0.02621596133466338</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.8139892932103794</v>
       </c>
       <c r="E66" t="n">
-        <v>1.419361625648767</v>
+        <v>1.428445289997793</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.842449867078465</v>
+        <v>-1.844409520884484</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03592608529396733</v>
+        <v>-0.03447798770237069</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8477609498927733</v>
       </c>
       <c r="E67" t="n">
-        <v>1.384179150249454</v>
+        <v>1.39349262139019</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.854671338545804</v>
+        <v>-1.856547569338395</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05496069852785654</v>
+        <v>-0.05356296954814153</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.875801864861122</v>
       </c>
       <c r="E68" t="n">
-        <v>1.333895535400382</v>
+        <v>1.343237338885302</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.884978289716888</v>
+        <v>-1.886752209266594</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06226257323157043</v>
+        <v>-0.06100650597277248</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.896828589952496</v>
       </c>
       <c r="E69" t="n">
-        <v>1.231195509792876</v>
+        <v>1.240175288879897</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.906548647755193</v>
+        <v>-1.908272198693017</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08450818547291306</v>
+        <v>-0.08317971333453528</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.9099244399812932</v>
       </c>
       <c r="E70" t="n">
-        <v>1.246705894214173</v>
+        <v>1.255810020811776</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.912479551804254</v>
+        <v>-1.914249536306156</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05378805428248753</v>
+        <v>-0.05228329200252407</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.915823320033223</v>
       </c>
       <c r="E71" t="n">
-        <v>1.239503182715101</v>
+        <v>1.248522312280154</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.947428285364054</v>
+        <v>-1.948955870921276</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07365374961242351</v>
+        <v>-0.07224657651798069</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.9158254336963367</v>
       </c>
       <c r="E72" t="n">
-        <v>1.222941353520775</v>
+        <v>1.231801507154577</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.977040307093084</v>
+        <v>-1.978642658558567</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1083089286061008</v>
+        <v>-0.1069946226398147</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.9109750160761982</v>
       </c>
       <c r="E73" t="n">
-        <v>1.227534341316731</v>
+        <v>1.236260703325222</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.976959245108336</v>
+        <v>-1.97854821741129</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.0958222349168224</v>
+        <v>-0.0944575603386547</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.9010077367356061</v>
       </c>
       <c r="E74" t="n">
-        <v>1.221822225925531</v>
+        <v>1.230191285593486</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.985391265541144</v>
+        <v>-1.986889731744623</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07718270048237966</v>
+        <v>-0.0756669200685671</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8850360074994643</v>
       </c>
       <c r="E75" t="n">
-        <v>1.167041638446903</v>
+        <v>1.174955806588803</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.018137946350244</v>
+        <v>-2.019655300783178</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04947681590924494</v>
+        <v>-0.04793270315124897</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8620194857517327</v>
       </c>
       <c r="E76" t="n">
-        <v>1.20257984216763</v>
+        <v>1.209987176152471</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.022038365732827</v>
+        <v>-2.023387300119782</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02988499990641528</v>
+        <v>-0.02833459107193411</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8309384742827445</v>
       </c>
       <c r="E77" t="n">
-        <v>1.13852670804542</v>
+        <v>1.144945558022084</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.019598636094811</v>
+        <v>-2.021045946676848</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.03126541467579599</v>
+        <v>-0.02973232005164912</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7909358040600131</v>
       </c>
       <c r="E78" t="n">
-        <v>1.15895432820166</v>
+        <v>1.164803383256413</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.030341316597688</v>
+        <v>-2.031768164931148</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02607429961374632</v>
+        <v>-0.02468916278700171</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7420128007454998</v>
       </c>
       <c r="E79" t="n">
-        <v>1.146069407674692</v>
+        <v>1.151093676709884</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.007147357835763</v>
+        <v>-2.008781189683673</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04737864842055112</v>
+        <v>-0.04603915814832425</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6850758856409811</v>
       </c>
       <c r="E80" t="n">
-        <v>1.127080440995321</v>
+        <v>1.131125670137064</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.969213497012416</v>
+        <v>-1.970493961567594</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.03105607013266299</v>
+        <v>-0.02984722344750407</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.621403745900092</v>
       </c>
       <c r="E81" t="n">
-        <v>1.153086384917451</v>
+        <v>1.156579133347617</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.92280983929735</v>
+        <v>-1.923960447275021</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01112111796138978</v>
+        <v>-0.01006652515011832</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5527123910126743</v>
       </c>
       <c r="E82" t="n">
-        <v>1.212371815121241</v>
+        <v>1.215364025470834</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.950038796076731</v>
+        <v>-1.95141763682699</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01643208675697876</v>
+        <v>0.01748825358737152</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4803494947411231</v>
       </c>
       <c r="E83" t="n">
-        <v>1.300228840414882</v>
+        <v>1.302851156270969</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.845766325367046</v>
+        <v>-1.84675166133698</v>
       </c>
       <c r="G83" t="n">
-        <v>0.009456034011374107</v>
+        <v>0.01037683519733501</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4048377278935935</v>
       </c>
       <c r="E84" t="n">
-        <v>1.296841551265843</v>
+        <v>1.298657969331824</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.784535407529327</v>
+        <v>-1.785416071227695</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02015306795973358</v>
+        <v>0.02100461230435725</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.327000332123023</v>
       </c>
       <c r="E85" t="n">
-        <v>1.40692530057137</v>
+        <v>1.408568576534008</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.755617528232791</v>
+        <v>-1.756619391403499</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01440317610962217</v>
+        <v>0.01503435777726374</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2494175676474055</v>
       </c>
       <c r="E86" t="n">
-        <v>1.652017391968222</v>
+        <v>1.653937695296209</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.651014513507633</v>
+        <v>-1.651768468666736</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03062186913550446</v>
+        <v>0.03108148271892426</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1752495300628455</v>
       </c>
       <c r="E87" t="n">
-        <v>1.589895579307847</v>
+        <v>1.590954894176483</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.530680751684195</v>
+        <v>-1.531450447034511</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05161928421365563</v>
+        <v>0.052003344879253</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1081074924989376</v>
       </c>
       <c r="E88" t="n">
-        <v>1.73763301403313</v>
+        <v>1.738950468037659</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.331320998847175</v>
+        <v>-1.331843573195446</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08835059442832849</v>
+        <v>0.08872835901744065</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.05237943003828854</v>
       </c>
       <c r="E89" t="n">
-        <v>1.905569836142064</v>
+        <v>1.907154873397214</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.15681343391637</v>
+        <v>-1.157080230157431</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1120899508157855</v>
+        <v>0.1124818815769893</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.01221758145848308</v>
       </c>
       <c r="E90" t="n">
-        <v>1.928382095267075</v>
+        <v>1.929674364965663</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9170997658570036</v>
+        <v>-0.9170100467670894</v>
       </c>
       <c r="G90" t="n">
-        <v>0.140863020353162</v>
+        <v>0.1412911535541558</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.009269232149017845</v>
       </c>
       <c r="E91" t="n">
-        <v>1.967332772442782</v>
+        <v>1.968582543625095</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.665462902953784</v>
+        <v>-0.6648663497068109</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0948056468447826</v>
+        <v>0.09500239923494519</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.01150858165461303</v>
       </c>
       <c r="E92" t="n">
-        <v>1.982847878921443</v>
+        <v>1.984476988711989</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4602422899186002</v>
+        <v>-0.4594694465300416</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1058631311719199</v>
+        <v>0.1061165482504493</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.003432908051608664</v>
       </c>
       <c r="E93" t="n">
-        <v>1.956409079740955</v>
+        <v>1.957995691015226</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.240084235422273</v>
+        <v>-0.2392075067717085</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09125623372624955</v>
+        <v>0.09134595281616369</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.03064701793994656</v>
       </c>
       <c r="E94" t="n">
-        <v>1.844376694763257</v>
+        <v>1.84571146297812</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05710451257106808</v>
+        <v>-0.05614121286883206</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06605933563246814</v>
+        <v>0.06613803658853318</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06367974303935328</v>
       </c>
       <c r="E95" t="n">
-        <v>1.793450880112695</v>
+        <v>1.794895829666049</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0744315433386665</v>
+        <v>0.0753602146202339</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05331922486466038</v>
+        <v>0.05351282921658036</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.09599462900713424</v>
       </c>
       <c r="E96" t="n">
-        <v>1.665857742101819</v>
+        <v>1.667120105437102</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1477477799897312</v>
+        <v>0.148479698881136</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005782045101937851</v>
+        <v>-0.005726954432692327</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1222402020842002</v>
       </c>
       <c r="E97" t="n">
-        <v>1.501550608086604</v>
+        <v>1.502575294534571</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1527374206042544</v>
+        <v>0.1531246293080944</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02103901244470542</v>
+        <v>-0.02102799431085631</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.141396003471927</v>
       </c>
       <c r="E98" t="n">
-        <v>1.388440020010815</v>
+        <v>1.389296286412802</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1805345982864246</v>
+        <v>0.1809092148372941</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05932702757034465</v>
+        <v>-0.05940258048816708</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1548339775326424</v>
       </c>
       <c r="E99" t="n">
-        <v>1.249737455041798</v>
+        <v>1.250351322499106</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1837030987776029</v>
+        <v>0.1839659599708601</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09867750560286184</v>
+        <v>-0.098814445266415</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.169443375674112</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091323448616733</v>
+        <v>1.091707509282331</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2385088705621715</v>
+        <v>0.2390471851016563</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1454258735054923</v>
+        <v>-0.1456729945075365</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1871637133837332</v>
       </c>
       <c r="E101" t="n">
-        <v>0.911263531235541</v>
+        <v>0.9112100145854168</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2208452279829352</v>
+        <v>0.2213111376428402</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1711658081961224</v>
+        <v>-0.1714979262307169</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.21206634106591</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8507645322892279</v>
+        <v>0.8508684175512337</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2584705810585068</v>
+        <v>0.2589868593302934</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2090414303119809</v>
+        <v>-0.2094018806907587</v>
       </c>
     </row>
   </sheetData>
